--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/63_Ordu_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/63_Ordu_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D227EE3B-32D4-43F3-9892-4038AF46C3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{621E9F3E-E175-4A16-8D14-3334BB7D898E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{F0D9EDBA-967F-4649-8377-BE883ECB9E54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{F3A0FDE9-D719-4F07-9EB0-34E601141BFD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -905,14 +905,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{6C3587AB-ABFE-4B3B-B390-416A0EE49DF2}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C0F9142F-57FA-457F-85E1-12118CC51E8F}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{A8175CAB-A3CC-4C89-B932-64F38A2DF273}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{8547A7FA-EFAC-4E00-817A-132E11C6C050}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BDC4741D-426F-4B3F-BBCB-979E0B0ACE59}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4EBB6EAA-91DD-4D19-B1AA-077909897326}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{81E87789-3082-4B3D-886F-E0912BCE6510}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5775B72F-E5A0-44AD-964B-916FA53A08FC}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{BD0CFD7E-DFE6-4F95-BA20-8EBA1548AC2A}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{95DE024A-8FAD-47F1-B46C-F7635166DC99}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{25491C4F-E91F-4ECF-899F-155A91666785}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{2621D278-56A1-4283-97FF-3411C9DEAC47}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{023F1DC0-74B6-44EE-B6CF-05238EC3DA33}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{81C45DD1-AF0F-4B24-87D7-8C8896A77993}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C82D8D52-B8B1-4745-B6CA-E9050219285C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{8F20C636-F13E-433B-B54B-39428DE415C6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1282,7 +1282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B9FD84-BEB1-433F-926D-D4FC1296E1E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2771CF51-66B4-470A-A7C0-003212C4C5C4}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -2570,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A509832F-56B2-4EAC-BA6C-E401F2D7DD12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C0AF5A-1EE0-450A-BA68-CE67D72C7028}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3850,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F8BABB-DEAA-41BE-857F-6C54889DB5B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC5B598-2AAF-48B7-9DF7-FA3E676F3879}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5132,7 +5132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130FEC6E-F6D2-44B2-89D9-F3C3A9C10726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC2405F-7D3B-425E-92B4-E90E474C86F0}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6402,7 +6402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513DEB5-D370-4D02-BBFB-53C8BD7AC5FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC3B995-23CD-47CD-9499-0AB0A10CD377}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7690,7 +7690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBDBA80-4075-48EB-9111-C702ABAD8560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7EF4F1-13DA-4140-AB82-A7515A67A710}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -8980,7 +8980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1589CB1D-2CDD-4FDE-9F6E-F9EDF5952FE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7B36DE-C104-4F4C-8395-ACDA5F071C60}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -10270,7 +10270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5158F1C0-918F-4911-AFE3-3D0DD39027EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D03F4F9-551A-4965-8056-B0C359B60E9B}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -11558,7 +11558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCEE16C-658F-4882-99EE-58F74E8F44F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468ED80E-6D8E-4105-94E4-DD5E6D2C2233}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12846,7 +12846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44184FC2-C64D-470D-8821-D9CF56B906F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F8DBA-BFC5-49D1-A79D-42074C4B73F7}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14136,7 +14136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D5E182-F470-4399-8510-0F9D1685E573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F100D397-974C-4020-AC3E-A7C5C66C9A0D}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15422,7 +15422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D47397B-6B23-44BB-8119-C153C1AF6475}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF3D194-B847-42F9-83C3-BCF5C37E320A}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
